--- a/posesiones/1381283.xlsx
+++ b/posesiones/1381283.xlsx
@@ -1958,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>23</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>8</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>7</v>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>27</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>20</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>15</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>14</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>17</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>16</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>11</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>10</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R48">
         <v>22</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R50">
         <v>22</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4531,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R55">
         <v>11</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R59">
         <v>20</v>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R60">
         <v>22</v>
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>24</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R63">
         <v>10</v>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R64">
         <v>16</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R67">
         <v>5</v>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R70">
         <v>21</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5384,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R72">
         <v>17</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5484,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R74">
         <v>8</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R79">
         <v>8</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>28</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R85">
         <v>7</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87">
         <v>3</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R92">
         <v>15</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R93">
         <v>25</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R97">
         <v>22</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R106">
         <v>32</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R114">
         <v>22</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7724,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R120">
         <v>20</v>
@@ -7777,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R121">
         <v>15</v>
@@ -7821,10 +7821,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7865,10 +7865,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R124">
         <v>15</v>
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R125">
         <v>21</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8071,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R127">
         <v>14</v>
@@ -8124,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R128">
         <v>14</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8371,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R133">
         <v>41</v>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R138">
         <v>17</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R139">
         <v>18</v>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R140">
         <v>27</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8818,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R142">
         <v>10</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8918,7 +8918,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R144">
         <v>19</v>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R151">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R153">
         <v>12</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R156">
         <v>22</v>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R160">
         <v>16</v>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9800,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R162">
         <v>20</v>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R164">
         <v>9</v>
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10091,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R168">
         <v>18</v>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R174">
         <v>39</v>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10529,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R177">
         <v>4</v>
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R179">
         <v>8</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R181">
         <v>7</v>
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10967,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R186">
         <v>29</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R191">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R195">
         <v>17</v>
@@ -11458,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R196">
         <v>15</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11699,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R201">
         <v>10</v>
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R204">
         <v>16</v>
@@ -11899,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R205">
         <v>15</v>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12002,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R207">
         <v>6</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12102,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R209">
         <v>11</v>
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12205,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R211">
         <v>12</v>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R213">
         <v>6</v>
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R215">
         <v>17</v>
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12505,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12740,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R223">
         <v>27</v>
@@ -12843,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R225">
         <v>10</v>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13043,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R228">
         <v>24</v>
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R230">
         <v>6</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13296,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R233">
         <v>25</v>
@@ -13340,10 +13340,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13384,10 +13384,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13437,7 +13437,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R236">
         <v>22</v>
@@ -13490,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R237">
         <v>13</v>
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R238">
         <v>19</v>
@@ -13596,7 +13596,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R239">
         <v>14</v>
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R240">
         <v>19</v>
@@ -13702,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R242">
         <v>9</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R243">
         <v>28</v>
@@ -13858,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R244">
         <v>14</v>
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R246">
         <v>11</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14058,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R248">
         <v>7</v>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14155,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14255,7 +14255,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R252">
         <v>11</v>
@@ -14308,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R253">
         <v>17</v>
@@ -14361,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R255">
         <v>16</v>
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14508,7 +14508,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14555,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14655,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R260">
         <v>6</v>
@@ -14705,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14752,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R268">
         <v>22</v>
@@ -15090,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R269">
         <v>3</v>
@@ -15140,7 +15140,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15237,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15287,7 +15287,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R273">
         <v>9</v>
@@ -15340,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R274">
         <v>9</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15440,7 +15440,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15493,7 +15493,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R277">
         <v>10</v>
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15593,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R279">
         <v>6</v>
@@ -15646,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R280">
         <v>23</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15749,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R282">
         <v>7</v>
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15946,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R286">
         <v>26</v>
@@ -15999,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16093,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16140,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R294">
         <v>23</v>
@@ -16384,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R295">
         <v>17</v>
@@ -16437,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16487,7 +16487,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R297">
         <v>4</v>
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16628,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16675,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16722,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16772,7 +16772,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R303">
         <v>18</v>
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16872,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16922,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16972,7 +16972,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R307">
         <v>18</v>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17075,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R309">
         <v>26</v>
@@ -17125,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17175,7 +17175,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R311">
         <v>12</v>
@@ -17225,7 +17225,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17275,7 +17275,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R313">
         <v>4</v>
@@ -17325,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17466,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17607,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17704,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R322">
         <v>30</v>
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17804,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17854,7 +17854,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17904,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R326">
         <v>16</v>
@@ -17954,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18054,7 +18054,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R329">
         <v>4</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18339,7 +18339,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18433,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18530,7 +18530,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R339">
         <v>44</v>
@@ -18580,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18630,7 +18630,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R341">
         <v>14</v>
@@ -18683,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R342">
         <v>11</v>
@@ -18733,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R344">
         <v>19</v>
@@ -18836,7 +18836,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18930,7 +18930,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19024,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19121,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R351">
         <v>0</v>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19218,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19268,7 +19268,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R354">
         <v>16</v>
@@ -19318,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19459,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19509,7 +19509,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R359">
         <v>0</v>
@@ -19562,7 +19562,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19612,7 +19612,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R361">
         <v>2</v>
@@ -19656,10 +19656,10 @@
         <v>1</v>
       </c>
       <c r="P362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q362">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19706,7 +19706,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19753,7 +19753,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19800,7 +19800,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19894,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19941,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19988,7 +19988,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20076,10 +20076,10 @@
         <v>1</v>
       </c>
       <c r="P371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q371">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20173,7 +20173,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20223,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R374">
         <v>14</v>
@@ -20276,7 +20276,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20326,7 +20326,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R376">
         <v>13</v>
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20426,7 +20426,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R378">
         <v>21</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20523,7 +20523,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20573,7 +20573,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R381">
         <v>0</v>
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R382">
         <v>0</v>
@@ -20679,7 +20679,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R383">
         <v>0</v>
@@ -20732,7 +20732,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R384">
         <v>0</v>
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20835,7 +20835,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R386">
         <v>68</v>
@@ -20888,7 +20888,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R387">
         <v>11</v>
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20991,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R389">
         <v>19</v>
@@ -21044,7 +21044,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R390">
         <v>19</v>
@@ -21094,7 +21094,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21141,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21188,7 +21188,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21285,7 +21285,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R395">
         <v>0</v>
@@ -21335,7 +21335,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21382,7 +21382,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21476,7 +21476,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21526,7 +21526,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R400">
         <v>15</v>
@@ -21576,7 +21576,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21623,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21673,7 +21673,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R403">
         <v>0</v>
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21770,7 +21770,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21817,7 +21817,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21911,7 +21911,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R408">
         <v>26</v>
@@ -21964,7 +21964,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R409">
         <v>16</v>
@@ -22011,7 +22011,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22061,7 +22061,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R411">
         <v>12</v>
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22158,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22255,7 +22255,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22305,7 +22305,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22355,7 +22355,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R417">
         <v>34</v>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22455,7 +22455,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R419">
         <v>22</v>
@@ -22508,7 +22508,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R420">
         <v>18</v>
@@ -22558,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22608,7 +22608,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R422">
         <v>14</v>
@@ -22658,7 +22658,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22846,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22896,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R428">
         <v>15</v>
@@ -22946,7 +22946,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22996,7 +22996,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23046,7 +23046,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R431">
         <v>11</v>
@@ -23096,7 +23096,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23143,7 +23143,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23237,7 +23237,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23284,7 +23284,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R437">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23481,7 +23481,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R440">
         <v>21</v>
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23584,7 +23584,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R442">
         <v>15</v>
@@ -23634,7 +23634,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23681,7 +23681,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23775,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23825,7 +23825,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R447">
         <v>8</v>
@@ -23878,7 +23878,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R448">
         <v>15</v>
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24163,7 +24163,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24260,7 +24260,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R456">
         <v>14</v>
@@ -24313,7 +24313,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24407,7 +24407,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24501,7 +24501,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24645,7 +24645,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R464">
         <v>23</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24792,7 +24792,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24839,7 +24839,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24889,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R469">
         <v>7</v>
@@ -24942,7 +24942,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R470">
         <v>16</v>
@@ -24992,7 +24992,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25042,7 +25042,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R472">
         <v>24</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25145,7 +25145,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R474">
         <v>7</v>
@@ -25195,7 +25195,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25239,7 +25239,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25333,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25427,7 +25427,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25477,7 +25477,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R481">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25571,7 +25571,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25665,7 +25665,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25759,7 +25759,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25809,7 +25809,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R488">
         <v>18</v>
@@ -25862,7 +25862,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R489">
         <v>17</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26009,7 +26009,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R492">
         <v>15</v>
@@ -26056,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26150,7 +26150,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26197,7 +26197,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26244,7 +26244,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26291,7 +26291,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26338,7 +26338,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26385,7 +26385,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26479,7 +26479,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26526,7 +26526,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26573,7 +26573,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26623,7 +26623,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R505">
         <v>9</v>
@@ -26670,7 +26670,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26720,7 +26720,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R507">
         <v>17</v>
@@ -26773,7 +26773,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26823,7 +26823,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R509">
         <v>0</v>
@@ -26873,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26923,7 +26923,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R511">
         <v>0</v>
@@ -26976,7 +26976,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R512">
         <v>6</v>
@@ -27020,10 +27020,10 @@
         <v>1</v>
       </c>
       <c r="P513" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q513">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27064,10 +27064,10 @@
         <v>1</v>
       </c>
       <c r="P514" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q514">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27114,7 +27114,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27161,7 +27161,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27208,7 +27208,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27302,7 +27302,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27352,7 +27352,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="R520">
         <v>13</v>
@@ -27405,7 +27405,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R521">
         <v>24</v>
@@ -27455,7 +27455,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27502,7 +27502,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27643,7 +27643,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27690,7 +27690,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27787,7 +27787,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27881,7 +27881,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27928,7 +27928,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27978,7 +27978,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R533">
         <v>17</v>
@@ -28031,7 +28031,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="R534">
         <v>14</v>
@@ -28084,7 +28084,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28131,7 +28131,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28225,7 +28225,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28322,7 +28322,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R540">
         <v>20</v>
@@ -28375,7 +28375,7 @@
         <v>1</v>
       </c>
       <c r="Q541">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="R541">
         <v>22</v>
@@ -28425,7 +28425,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28475,7 +28475,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28525,7 +28525,7 @@
         <v>1</v>
       </c>
       <c r="Q544">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="R544">
         <v>39</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28625,7 +28625,7 @@
         <v>1</v>
       </c>
       <c r="Q546">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="R546">
         <v>14</v>
@@ -28675,7 +28675,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28913,7 +28913,7 @@
         <v>1</v>
       </c>
       <c r="Q552">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R552">
         <v>23</v>
@@ -28966,7 +28966,7 @@
         <v>1</v>
       </c>
       <c r="Q553">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="R553">
         <v>18</v>
@@ -29019,7 +29019,7 @@
         <v>1</v>
       </c>
       <c r="Q554">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R554">
         <v>25</v>
@@ -29069,7 +29069,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29119,7 +29119,7 @@
         <v>1</v>
       </c>
       <c r="Q556">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R556">
         <v>8</v>
@@ -29166,7 +29166,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29213,7 +29213,7 @@
         <v>1</v>
       </c>
       <c r="Q558">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="R558">
         <v>14</v>
@@ -29266,7 +29266,7 @@
         <v>1</v>
       </c>
       <c r="Q559">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="R559">
         <v>15</v>
@@ -29319,7 +29319,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29369,7 +29369,7 @@
         <v>1</v>
       </c>
       <c r="Q561">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R561">
         <v>18</v>
@@ -29422,7 +29422,7 @@
         <v>0</v>
       </c>
       <c r="Q562">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="Q563">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="564" spans="1:18">
@@ -29516,7 +29516,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="Q565">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="566" spans="1:18">
@@ -29610,7 +29610,7 @@
         <v>0</v>
       </c>
       <c r="Q566">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Q567">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -29707,7 +29707,7 @@
         <v>1</v>
       </c>
       <c r="Q568">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="R568">
         <v>2</v>
@@ -29760,7 +29760,7 @@
         <v>1</v>
       </c>
       <c r="Q569">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="R569">
         <v>7</v>
@@ -29810,7 +29810,7 @@
         <v>0</v>
       </c>
       <c r="Q570">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="571" spans="1:18">
@@ -29857,7 +29857,7 @@
         <v>0</v>
       </c>
       <c r="Q571">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -29904,7 +29904,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -29954,7 +29954,7 @@
         <v>1</v>
       </c>
       <c r="Q573">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="R573">
         <v>2</v>
@@ -30007,7 +30007,7 @@
         <v>1</v>
       </c>
       <c r="Q574">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="R574">
         <v>3</v>
@@ -30057,7 +30057,7 @@
         <v>0</v>
       </c>
       <c r="Q575">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="576" spans="1:18">
@@ -30110,7 +30110,7 @@
         <v>1</v>
       </c>
       <c r="Q576">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="R576">
         <v>0</v>
@@ -30154,10 +30154,10 @@
         <v>1</v>
       </c>
       <c r="P577" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q577">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="578" spans="1:17">
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="Q578">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
